--- a/example/info/02 trimmed small info.xlsx
+++ b/example/info/02 trimmed small info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,37 +481,52 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>UPL_0</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UPL_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_0</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>foot correction</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_0</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -551,26 +566,39 @@
       <c r="I2" t="n">
         <v>3.175</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0.0024866443451765</v>
+      </c>
+      <c r="K2" t="n">
+        <v>158.406047302999</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.0021430312117828</v>
+        <v>0.001167465321559</v>
       </c>
       <c r="M2" t="n">
-        <v>158.406047302999</v>
+        <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0008238521881653</v>
+        <v>63702.73562050128</v>
       </c>
       <c r="O2" t="n">
-        <v>74.37073472538241</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63702.73562050127</v>
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -609,30 +637,39 @@
       <c r="I3" t="n">
         <v>3.175</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>trim at 0.115</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.0036528029990347</v>
+      </c>
+      <c r="K3" t="n">
+        <v>198.512982112349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0031632217586024</v>
+        <v>0.0013488721399518</v>
       </c>
       <c r="M3" t="n">
-        <v>198.512982112349</v>
+        <v>73.3049745800319</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008592908995195</v>
+        <v>54345.38412413871</v>
       </c>
       <c r="O3" t="n">
-        <v>73.3049745800319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>54345.38412413871</v>
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -671,30 +708,39 @@
       <c r="I4" t="n">
         <v>3.175</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0.0017713102914095</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0012405455890814</v>
+        <v>0.00055824291837</v>
       </c>
       <c r="M4" t="n">
-        <v>115.590404178709</v>
+        <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7478216041874e-05</v>
+        <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>36.4292608004567</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65257.0047943025</v>
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -733,26 +779,39 @@
       <c r="I5" t="n">
         <v>3.175</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.0032340639395851</v>
+      </c>
+      <c r="K5" t="n">
+        <v>192.947593520996</v>
+      </c>
       <c r="L5" t="n">
-        <v>0.0036687573069259</v>
+        <v>0.0005903185807671</v>
       </c>
       <c r="M5" t="n">
-        <v>192.947593520996</v>
+        <v>35.2190159803605</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0010250119481079</v>
+        <v>59661.03241166723</v>
       </c>
       <c r="O5" t="n">
-        <v>35.2190159803605</v>
-      </c>
-      <c r="P5" t="n">
-        <v>59661.03241166723</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -791,26 +850,39 @@
       <c r="I6" t="n">
         <v>3.175</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.0038145136108889</v>
+      </c>
+      <c r="K6" t="n">
+        <v>212.461144507981</v>
+      </c>
       <c r="L6" t="n">
-        <v>0.0034578054274945</v>
+        <v>0.0002194805336283</v>
       </c>
       <c r="M6" t="n">
-        <v>212.461144507981</v>
+        <v>12.2246477870196</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0001372276497661</v>
+        <v>55698.09579430651</v>
       </c>
       <c r="O6" t="n">
-        <v>12.2246477870196</v>
-      </c>
-      <c r="P6" t="n">
-        <v>55698.09579430651</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -849,26 +921,39 @@
       <c r="I7" t="n">
         <v>3.175</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.0014226741895918</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.116005949159</v>
+      </c>
       <c r="L7" t="n">
-        <v>0.0013308344028587</v>
+        <v>0.0005565689981795</v>
       </c>
       <c r="M7" t="n">
-        <v>100.116005949159</v>
+        <v>39.1667084006418</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0004647292114464</v>
+        <v>70371.70329060289</v>
       </c>
       <c r="O7" t="n">
-        <v>39.1667084006418</v>
-      </c>
-      <c r="P7" t="n">
-        <v>70371.70329060289</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -907,26 +992,39 @@
       <c r="I8" t="n">
         <v>3.175</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.0021568177214288</v>
+      </c>
+      <c r="K8" t="n">
+        <v>133.484577967839</v>
+      </c>
       <c r="L8" t="n">
-        <v>0.0019856080988389</v>
+        <v>0.0008960826996215</v>
       </c>
       <c r="M8" t="n">
-        <v>133.484577967839</v>
+        <v>55.4581964877506</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0007248730770316</v>
+        <v>61889.59625174473</v>
       </c>
       <c r="O8" t="n">
-        <v>55.4581964877506</v>
-      </c>
-      <c r="P8" t="n">
-        <v>61889.59625174473</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -965,26 +1063,43 @@
       <c r="I9" t="n">
         <v>3.175</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.0025430369839605</v>
+      </c>
+      <c r="K9" t="n">
+        <v>153.024416048495</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.0022306410620245</v>
+        <v>0.0023170882730189</v>
       </c>
       <c r="M9" t="n">
-        <v>153.024416048495</v>
+        <v>139.948060973625</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0020046923510829</v>
+        <v>57873.11208980431</v>
       </c>
       <c r="O9" t="n">
-        <v>139.948060973625</v>
-      </c>
-      <c r="P9" t="n">
-        <v>57873.11208980431</v>
+        <v>0.00010109965432908</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[0.00643791]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[267.04645153]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1023,26 +1138,39 @@
       <c r="I10" t="n">
         <v>3.175</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.003383981439116</v>
+      </c>
+      <c r="K10" t="n">
+        <v>183.56403158262</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.0038156755099284</v>
+        <v>0.0005319670038822</v>
       </c>
       <c r="M10" t="n">
-        <v>183.56403158262</v>
+        <v>28.8565435888071</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0009636610746946</v>
+        <v>54244.98771203815</v>
       </c>
       <c r="O10" t="n">
-        <v>28.8565435888071</v>
-      </c>
-      <c r="P10" t="n">
-        <v>54244.98771203815</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1081,26 +1209,39 @@
       <c r="I11" t="n">
         <v>3.175</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.0034087008837437</v>
+      </c>
+      <c r="K11" t="n">
+        <v>186.003104711952</v>
+      </c>
       <c r="L11" t="n">
-        <v>0.0031624118084904</v>
+        <v>0.0017516945150122</v>
       </c>
       <c r="M11" t="n">
-        <v>186.003104711952</v>
+        <v>95.5849836672474</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0015054054397589</v>
+        <v>54567.15360359359</v>
       </c>
       <c r="O11" t="n">
-        <v>95.5849836672474</v>
-      </c>
-      <c r="P11" t="n">
-        <v>54567.15360359359</v>
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1139,26 +1280,43 @@
       <c r="I12" t="n">
         <v>3.175</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.0035549164044843</v>
+      </c>
+      <c r="K12" t="n">
+        <v>197.823708886257</v>
+      </c>
       <c r="L12" t="n">
-        <v>0.0028824921341948</v>
+        <v>0.002787539898694</v>
       </c>
       <c r="M12" t="n">
-        <v>197.823708886257</v>
+        <v>157.543106150142</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0021151156284045</v>
+        <v>52491.31610386107</v>
       </c>
       <c r="O12" t="n">
-        <v>157.543106150142</v>
-      </c>
-      <c r="P12" t="n">
-        <v>52491.31610386107</v>
+        <v>0.0002137776113950341</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.00663752]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[258.06834779]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1197,26 +1355,39 @@
       <c r="I13" t="n">
         <v>3.175</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.002831397119518</v>
+      </c>
+      <c r="K13" t="n">
+        <v>164.610840241371</v>
+      </c>
       <c r="L13" t="n">
-        <v>0.0030560513265569</v>
+        <v>0.0023698307756058</v>
       </c>
       <c r="M13" t="n">
-        <v>164.610840241371</v>
+        <v>137.77644701028</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0025944849826447</v>
+        <v>58137.67313198094</v>
       </c>
       <c r="O13" t="n">
-        <v>137.77644701028</v>
-      </c>
-      <c r="P13" t="n">
-        <v>58137.67313198094</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1255,26 +1426,39 @@
       <c r="I14" t="n">
         <v>3.175</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.0033375993605944</v>
+      </c>
+      <c r="K14" t="n">
+        <v>191.93280380166</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.0030280954502827</v>
+        <v>0.0010929616782864</v>
       </c>
       <c r="M14" t="n">
-        <v>191.93280380166</v>
+        <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0007834577679747</v>
+        <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>62.8521211497185</v>
-      </c>
-      <c r="P14" t="n">
-        <v>57506.24417888996</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1313,26 +1497,39 @@
       <c r="I15" t="n">
         <v>3.175</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.0030521717345179</v>
+      </c>
+      <c r="K15" t="n">
+        <v>179.013564063243</v>
+      </c>
       <c r="L15" t="n">
-        <v>0.0029354443939829</v>
+        <v>0.0007991534053124</v>
       </c>
       <c r="M15" t="n">
-        <v>179.013564063243</v>
+        <v>46.8713138583788</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0006824260647774</v>
+        <v>58651.20957602798</v>
       </c>
       <c r="O15" t="n">
-        <v>46.8713138583788</v>
-      </c>
-      <c r="P15" t="n">
-        <v>58651.20957602798</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1371,26 +1568,39 @@
       <c r="I16" t="n">
         <v>3.175</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.0007660653984972</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56.3769290357358</v>
+      </c>
       <c r="L16" t="n">
-        <v>0.0006707484800995</v>
+        <v>0.0004235744015886</v>
       </c>
       <c r="M16" t="n">
-        <v>56.3769290357358</v>
+        <v>31.172043570381</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0003282574831909</v>
+        <v>73592.84095891487</v>
       </c>
       <c r="O16" t="n">
-        <v>31.172043570381</v>
-      </c>
-      <c r="P16" t="n">
-        <v>73592.84095891487</v>
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1429,26 +1639,39 @@
       <c r="I17" t="n">
         <v>3.175</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.0024070700699014</v>
+      </c>
+      <c r="K17" t="n">
+        <v>144.247777516109</v>
+      </c>
       <c r="L17" t="n">
-        <v>0.0025738738481878</v>
+        <v>0.0006398491389771</v>
       </c>
       <c r="M17" t="n">
-        <v>144.247777516109</v>
+        <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0008066529172635</v>
+        <v>59926.70480174589</v>
       </c>
       <c r="O17" t="n">
-        <v>38.3440504691419</v>
-      </c>
-      <c r="P17" t="n">
-        <v>59926.70480174591</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1487,26 +1710,39 @@
       <c r="I18" t="n">
         <v>3.175</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.0045643154292361</v>
+      </c>
+      <c r="K18" t="n">
+        <v>227.601528876447</v>
+      </c>
       <c r="L18" t="n">
-        <v>0.0041106618582026</v>
+        <v>0.0015755543870217</v>
       </c>
       <c r="M18" t="n">
-        <v>227.601528876447</v>
+        <v>78.5656891759014</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0011219008159882</v>
+        <v>49865.42503582808</v>
       </c>
       <c r="O18" t="n">
-        <v>78.5656891759014</v>
-      </c>
-      <c r="P18" t="n">
-        <v>49865.42503582808</v>
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1545,26 +1781,39 @@
       <c r="I19" t="n">
         <v>3.175</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.0018100334081097</v>
+      </c>
+      <c r="K19" t="n">
+        <v>102.235369819713</v>
+      </c>
       <c r="L19" t="n">
-        <v>0.0023649733367396</v>
+        <v>0.0006185604438029</v>
       </c>
       <c r="M19" t="n">
-        <v>102.235369819713</v>
+        <v>34.9378942094105</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0011735003724328</v>
+        <v>56482.58720621179</v>
       </c>
       <c r="O19" t="n">
-        <v>34.9378942094105</v>
-      </c>
-      <c r="P19" t="n">
-        <v>56482.58720621179</v>
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1603,26 +1852,39 @@
       <c r="I20" t="n">
         <v>3.175</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.0029467294110136</v>
+      </c>
+      <c r="K20" t="n">
+        <v>203.724300085789</v>
+      </c>
       <c r="L20" t="n">
-        <v>0.0033726568852873</v>
+        <v>0.0012134980419398</v>
       </c>
       <c r="M20" t="n">
-        <v>203.724300085789</v>
+        <v>83.8960775718557</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0016394255162135</v>
+        <v>69135.73378144363</v>
       </c>
       <c r="O20" t="n">
-        <v>83.8960775718557</v>
-      </c>
-      <c r="P20" t="n">
-        <v>69135.73378144363</v>
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1661,26 +1923,39 @@
       <c r="I21" t="n">
         <v>3.175</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.003099591938447</v>
+      </c>
+      <c r="K21" t="n">
+        <v>184.962353082935</v>
+      </c>
       <c r="L21" t="n">
-        <v>0.0031797904613142</v>
+        <v>9.85013895770068e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>184.962353082935</v>
+        <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0001786999124442</v>
+        <v>59673.13012680225</v>
       </c>
       <c r="O21" t="n">
-        <v>5.87788623789952</v>
-      </c>
-      <c r="P21" t="n">
-        <v>59673.13012680211</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1719,26 +1994,39 @@
       <c r="I22" t="n">
         <v>3.175</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.0025382361590274</v>
+      </c>
+      <c r="K22" t="n">
+        <v>147.650044884146</v>
+      </c>
       <c r="L22" t="n">
-        <v>0.0024472642485076</v>
+        <v>0.0008695210452604</v>
       </c>
       <c r="M22" t="n">
-        <v>147.650044884146</v>
+        <v>50.5803295346691</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0007785491347406</v>
+        <v>58170.33389860614</v>
       </c>
       <c r="O22" t="n">
-        <v>50.5803295346691</v>
-      </c>
-      <c r="P22" t="n">
-        <v>58170.33389860614</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1777,26 +2065,39 @@
       <c r="I23" t="n">
         <v>3.175</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.0029868656894759</v>
+      </c>
+      <c r="K23" t="n">
+        <v>176.979439785403</v>
+      </c>
       <c r="L23" t="n">
-        <v>0.0025581688826486</v>
+        <v>0.0012959178912094</v>
       </c>
       <c r="M23" t="n">
-        <v>176.979439785403</v>
+        <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0008672210843821</v>
+        <v>59252.56043784517</v>
       </c>
       <c r="O23" t="n">
-        <v>76.786453171376</v>
-      </c>
-      <c r="P23" t="n">
-        <v>59252.56043784516</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1835,26 +2136,39 @@
       <c r="I24" t="n">
         <v>3.175</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.0029139287608913</v>
+      </c>
+      <c r="K24" t="n">
+        <v>164.528068453978</v>
+      </c>
       <c r="L24" t="n">
-        <v>0.0026181667841312</v>
+        <v>0.0002542523812495</v>
       </c>
       <c r="M24" t="n">
-        <v>164.528068453978</v>
+        <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>-4.15095955106565e-05</v>
+        <v>56462.62553229024</v>
       </c>
       <c r="O24" t="n">
-        <v>14.3557569931856</v>
-      </c>
-      <c r="P24" t="n">
-        <v>56462.62553228906</v>
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1893,26 +2207,39 @@
       <c r="I25" t="n">
         <v>3.175</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.0027992918310765</v>
+      </c>
+      <c r="K25" t="n">
+        <v>166.148394269309</v>
+      </c>
       <c r="L25" t="n">
-        <v>0.0028913880631288</v>
+        <v>9.348677992880445e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>166.148394269309</v>
+        <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>0.000101444910045</v>
+        <v>59353.72383286482</v>
       </c>
       <c r="O25" t="n">
-        <v>0.554878851791746</v>
-      </c>
-      <c r="P25" t="n">
-        <v>59353.72383286097</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1951,26 +2278,39 @@
       <c r="I26" t="n">
         <v>3.175</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.0023420941477582</v>
+      </c>
+      <c r="K26" t="n">
+        <v>143.264709458966</v>
+      </c>
       <c r="L26" t="n">
-        <v>0.0024196761628747</v>
+        <v>6.561829182213629e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>143.264709458966</v>
+        <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0001432003069386</v>
+        <v>61169.49209582195</v>
       </c>
       <c r="O26" t="n">
-        <v>4.01383758295543</v>
-      </c>
-      <c r="P26" t="n">
-        <v>61169.49209582098</v>
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2009,26 +2349,39 @@
       <c r="I27" t="n">
         <v>3.175</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.001877897583312</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.945593796641</v>
+      </c>
       <c r="L27" t="n">
-        <v>0.0018960100167003</v>
+        <v>4.202040312191429e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>114.945593796641</v>
+        <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>6.01328365101964e-05</v>
+        <v>61209.72454414391</v>
       </c>
       <c r="O27" t="n">
-        <v>2.57205730032622</v>
-      </c>
-      <c r="P27" t="n">
-        <v>61209.7245441433</v>
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2067,26 +2420,39 @@
       <c r="I28" t="n">
         <v>3.175</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.0036080676457416</v>
+      </c>
+      <c r="K28" t="n">
+        <v>211.28186215837</v>
+      </c>
       <c r="L28" t="n">
-        <v>0.0038502341851608</v>
+        <v>0.0003993781755485</v>
       </c>
       <c r="M28" t="n">
-        <v>211.28186215837</v>
+        <v>23.3868577089734</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0006415447149677</v>
+        <v>58558.17653744132</v>
       </c>
       <c r="O28" t="n">
-        <v>23.3868577089734</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58558.17653744132</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2125,26 +2491,39 @@
       <c r="I29" t="n">
         <v>3.175</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.0016482249493896</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100.820663952542</v>
+      </c>
       <c r="L29" t="n">
-        <v>0.0012133305043666</v>
+        <v>0.0004206924613086</v>
       </c>
       <c r="M29" t="n">
-        <v>100.820663952542</v>
+        <v>25.7334372257117</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.42019837143363e-05</v>
+        <v>61169.23784576494</v>
       </c>
       <c r="O29" t="n">
-        <v>25.7334372257117</v>
-      </c>
-      <c r="P29" t="n">
-        <v>61169.23784576812</v>
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2183,26 +2562,39 @@
       <c r="I30" t="n">
         <v>3.175</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.0017423217627015</v>
+      </c>
+      <c r="K30" t="n">
+        <v>117.019256302744</v>
+      </c>
       <c r="L30" t="n">
-        <v>0.0016458153709904</v>
+        <v>0.0006749432958573</v>
       </c>
       <c r="M30" t="n">
-        <v>117.019256302744</v>
+        <v>45.3311002700754</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0005784369041462</v>
+        <v>67162.82767500551</v>
       </c>
       <c r="O30" t="n">
-        <v>45.3311002700754</v>
-      </c>
-      <c r="P30" t="n">
-        <v>67162.82767500551</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2241,26 +2633,39 @@
       <c r="I31" t="n">
         <v>3.175</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.0037704206377887</v>
+      </c>
+      <c r="K31" t="n">
+        <v>185.923507771131</v>
+      </c>
       <c r="L31" t="n">
-        <v>0.002719677779803</v>
+        <v>0.0012018073543631</v>
       </c>
       <c r="M31" t="n">
-        <v>185.923507771131</v>
+        <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0001510644963774</v>
+        <v>49311.07842656267</v>
       </c>
       <c r="O31" t="n">
-        <v>59.2624167046206</v>
-      </c>
-      <c r="P31" t="n">
-        <v>49311.07842656266</v>
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2299,26 +2704,39 @@
       <c r="I32" t="n">
         <v>3.175</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.0005420269248842</v>
+      </c>
+      <c r="K32" t="n">
+        <v>46.1272742639521</v>
+      </c>
       <c r="L32" t="n">
-        <v>0.0005871015629028</v>
+        <v>4.254760559954508e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>46.1272742639521</v>
+        <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>8.762224361805309e-05</v>
+        <v>85101.44449707461</v>
       </c>
       <c r="O32" t="n">
-        <v>3.62086269641244</v>
-      </c>
-      <c r="P32" t="n">
-        <v>85101.44449705892</v>
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2357,26 +2775,39 @@
       <c r="I33" t="n">
         <v>3.175</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.0035756805884241</v>
+      </c>
+      <c r="K33" t="n">
+        <v>193.34158337017</v>
+      </c>
       <c r="L33" t="n">
-        <v>0.0029281608179439</v>
+        <v>0.0017641945565892</v>
       </c>
       <c r="M33" t="n">
-        <v>193.34158337017</v>
+        <v>95.3922366690816</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001116674786109</v>
+        <v>54071.26799750867</v>
       </c>
       <c r="O33" t="n">
-        <v>95.3922366690816</v>
-      </c>
-      <c r="P33" t="n">
-        <v>54071.26799750867</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2415,26 +2846,39 @@
       <c r="I34" t="n">
         <v>3.175</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.0005830672385619</v>
+      </c>
+      <c r="K34" t="n">
+        <v>44.360833762824</v>
+      </c>
       <c r="L34" t="n">
-        <v>0.0005814067947547</v>
+        <v>0.0001722150993256</v>
       </c>
       <c r="M34" t="n">
-        <v>44.360833762824</v>
+        <v>13.1024432301733</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0001705546555184</v>
+        <v>76081.84927734443</v>
       </c>
       <c r="O34" t="n">
-        <v>13.1024432301733</v>
-      </c>
-      <c r="P34" t="n">
-        <v>76081.84927734443</v>
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2473,26 +2917,39 @@
       <c r="I35" t="n">
         <v>3.175</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.0007326478168975</v>
+      </c>
+      <c r="K35" t="n">
+        <v>48.1833180137349</v>
+      </c>
       <c r="L35" t="n">
-        <v>0.0006912896239247</v>
+        <v>0.0004947773424867</v>
       </c>
       <c r="M35" t="n">
-        <v>48.1833180137349</v>
+        <v>32.5395278457009</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0004534191495139</v>
+        <v>65766.00230349448</v>
       </c>
       <c r="O35" t="n">
-        <v>32.5395278457009</v>
-      </c>
-      <c r="P35" t="n">
-        <v>65766.00230349448</v>
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2531,26 +2988,39 @@
       <c r="I36" t="n">
         <v>3.175</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.0025945324649932</v>
+      </c>
+      <c r="K36" t="n">
+        <v>144.025333226662</v>
+      </c>
       <c r="L36" t="n">
-        <v>0.0014631282682139</v>
+        <v>0.0007298762958923</v>
       </c>
       <c r="M36" t="n">
-        <v>144.025333226662</v>
+        <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.000401527900887</v>
+        <v>55511.09310441386</v>
       </c>
       <c r="O36" t="n">
-        <v>40.5162310159823</v>
-      </c>
-      <c r="P36" t="n">
-        <v>55511.09310441385</v>
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2589,26 +3059,39 @@
       <c r="I37" t="n">
         <v>3.175</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.0048830373018302</v>
+      </c>
+      <c r="K37" t="n">
+        <v>218.94767432926</v>
+      </c>
       <c r="L37" t="n">
-        <v>0.0039773369917128</v>
+        <v>0.0022339502696296</v>
       </c>
       <c r="M37" t="n">
-        <v>218.94767432926</v>
+        <v>100.166799037006</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0013282499595122</v>
+        <v>44838.41936804264</v>
       </c>
       <c r="O37" t="n">
-        <v>100.166799037006</v>
-      </c>
-      <c r="P37" t="n">
-        <v>44838.41936804264</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2647,26 +3130,39 @@
       <c r="I38" t="n">
         <v>3.175</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.0032011930067417</v>
+      </c>
+      <c r="K38" t="n">
+        <v>174.581165598501</v>
+      </c>
       <c r="L38" t="n">
-        <v>0.0023381259215176</v>
+        <v>0.0005973992805998</v>
       </c>
       <c r="M38" t="n">
-        <v>174.581165598501</v>
+        <v>32.5799358286726</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0002656678046243</v>
+        <v>54536.28232687803</v>
       </c>
       <c r="O38" t="n">
-        <v>32.5799358286726</v>
-      </c>
-      <c r="P38" t="n">
-        <v>54536.28232687803</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2705,26 +3201,39 @@
       <c r="I39" t="n">
         <v>3.175</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.0035359444264281</v>
+      </c>
+      <c r="K39" t="n">
+        <v>176.304083740973</v>
+      </c>
       <c r="L39" t="n">
-        <v>0.0027342685913477</v>
+        <v>0.0016041809945174</v>
       </c>
       <c r="M39" t="n">
-        <v>176.304083740973</v>
+        <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>0.000802505159437</v>
+        <v>49860.53582269123</v>
       </c>
       <c r="O39" t="n">
-        <v>79.9853239432246</v>
-      </c>
-      <c r="P39" t="n">
-        <v>49860.53582269121</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2763,26 +3272,39 @@
       <c r="I40" t="n">
         <v>3.175</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.0021976142216443</v>
+      </c>
+      <c r="K40" t="n">
+        <v>126.327924989666</v>
+      </c>
       <c r="L40" t="n">
-        <v>0.0021871174190301</v>
+        <v>0.0003662964402998</v>
       </c>
       <c r="M40" t="n">
-        <v>126.327924989666</v>
+        <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0003557996376856</v>
+        <v>57484.12243853199</v>
       </c>
       <c r="O40" t="n">
-        <v>21.056229422998</v>
-      </c>
-      <c r="P40" t="n">
-        <v>57484.122438532</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2821,26 +3343,39 @@
       <c r="I41" t="n">
         <v>3.175</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.0024403865400678</v>
+      </c>
+      <c r="K41" t="n">
+        <v>127.142187354785</v>
+      </c>
       <c r="L41" t="n">
-        <v>0.0023172225108585</v>
+        <v>0.0012729239636416</v>
       </c>
       <c r="M41" t="n">
-        <v>127.142187354785</v>
+        <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0011497599344323</v>
+        <v>52099.200379646</v>
       </c>
       <c r="O41" t="n">
-        <v>66.3183206498186</v>
-      </c>
-      <c r="P41" t="n">
-        <v>52099.20037964602</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2879,26 +3414,39 @@
       <c r="I42" t="n">
         <v>3.175</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.0029196192406497</v>
+      </c>
+      <c r="K42" t="n">
+        <v>137.914967289347</v>
+      </c>
       <c r="L42" t="n">
-        <v>0.002043807001187</v>
+        <v>0.0004717993448001</v>
       </c>
       <c r="M42" t="n">
-        <v>137.914967289347</v>
+        <v>22.2865332229986</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0004040128946626</v>
+        <v>47237.31278694244</v>
       </c>
       <c r="O42" t="n">
-        <v>22.2865332229986</v>
-      </c>
-      <c r="P42" t="n">
-        <v>47237.31278694243</v>
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2937,26 +3485,39 @@
       <c r="I43" t="n">
         <v>3.175</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.0007756972094795</v>
+      </c>
+      <c r="K43" t="n">
+        <v>43.69035133474</v>
+      </c>
       <c r="L43" t="n">
-        <v>4.26180075737827e-05</v>
+        <v>0.0004853675214597</v>
       </c>
       <c r="M43" t="n">
-        <v>43.69035133474</v>
+        <v>27.3378288330787</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.000247711680446</v>
+        <v>56323.97641865025</v>
       </c>
       <c r="O43" t="n">
-        <v>27.3378288330787</v>
-      </c>
-      <c r="P43" t="n">
-        <v>56323.97641865361</v>
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2995,26 +3556,39 @@
       <c r="I44" t="n">
         <v>3.175</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.0043854614606345</v>
+      </c>
+      <c r="K44" t="n">
+        <v>190.806708666229</v>
+      </c>
       <c r="L44" t="n">
-        <v>0.0033548701370235</v>
+        <v>0.0020489993184195</v>
       </c>
       <c r="M44" t="n">
-        <v>190.806708666229</v>
+        <v>89.1497552803521</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0010184079948085</v>
+        <v>43508.92383366616</v>
       </c>
       <c r="O44" t="n">
-        <v>89.1497552803521</v>
-      </c>
-      <c r="P44" t="n">
-        <v>43508.92383366616</v>
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3053,26 +3627,39 @@
       <c r="I45" t="n">
         <v>3.175</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.0022294007115337</v>
+      </c>
+      <c r="K45" t="n">
+        <v>106.423782753718</v>
+      </c>
       <c r="L45" t="n">
-        <v>0.0014972913617768</v>
+        <v>0.0010464382413818</v>
       </c>
       <c r="M45" t="n">
-        <v>106.423782753718</v>
+        <v>49.9532970855636</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0003143288916249</v>
+        <v>47736.49806565988</v>
       </c>
       <c r="O45" t="n">
-        <v>49.9532970855636</v>
-      </c>
-      <c r="P45" t="n">
-        <v>47736.49806565988</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3111,26 +3698,39 @@
       <c r="I46" t="n">
         <v>3.175</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.0016426679313127</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86.96884979516319</v>
+      </c>
       <c r="L46" t="n">
-        <v>0.0010443373566301</v>
+        <v>0.0008846657864567</v>
       </c>
       <c r="M46" t="n">
-        <v>86.96884979516319</v>
+        <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0002863352117741</v>
+        <v>52943.65838484175</v>
       </c>
       <c r="O46" t="n">
-        <v>46.8374431829298</v>
-      </c>
-      <c r="P46" t="n">
-        <v>52943.65838484174</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3169,26 +3769,39 @@
       <c r="I47" t="n">
         <v>3.175</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.0020296884563959</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.3135045128474</v>
+      </c>
       <c r="L47" t="n">
-        <v>0.0015456633195706</v>
+        <v>0.0002692857965243</v>
       </c>
       <c r="M47" t="n">
-        <v>98.3135045128474</v>
+        <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.000214739340301</v>
+        <v>48437.73151640275</v>
       </c>
       <c r="O47" t="n">
-        <v>13.0435931132256</v>
-      </c>
-      <c r="P47" t="n">
-        <v>48437.73151640273</v>
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3227,30 +3840,39 @@
       <c r="I48" t="n">
         <v>3.175</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J48" t="n">
+        <v>0.0020634027864036</v>
+      </c>
+      <c r="K48" t="n">
+        <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0019787964702512</v>
+        <v>0.0004515525620683</v>
       </c>
       <c r="M48" t="n">
-        <v>107.531322495733</v>
+        <v>23.5320241377496</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0003669462459159</v>
+        <v>52113.58790648386</v>
       </c>
       <c r="O48" t="n">
-        <v>23.5320241377496</v>
-      </c>
-      <c r="P48" t="n">
-        <v>52113.58790648386</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3289,26 +3911,39 @@
       <c r="I49" t="n">
         <v>3.175</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.0046969475340941</v>
+      </c>
+      <c r="K49" t="n">
+        <v>214.622689722153</v>
+      </c>
       <c r="L49" t="n">
-        <v>0.0038402199301262</v>
+        <v>0.0013242197840926</v>
       </c>
       <c r="M49" t="n">
-        <v>214.622689722153</v>
+        <v>60.5090028752196</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0004674921801247</v>
+        <v>45694.07858279248</v>
       </c>
       <c r="O49" t="n">
-        <v>60.5090028752196</v>
-      </c>
-      <c r="P49" t="n">
-        <v>45694.07858279248</v>
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3347,26 +3982,39 @@
       <c r="I50" t="n">
         <v>3.175</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.0028726199394316</v>
+      </c>
+      <c r="K50" t="n">
+        <v>151.737831510864</v>
+      </c>
       <c r="L50" t="n">
-        <v>0.0026026678908469</v>
+        <v>0.0005664390169995</v>
       </c>
       <c r="M50" t="n">
-        <v>151.737831510864</v>
+        <v>29.9205011226317</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0002964869684148</v>
+        <v>52822.10480683522</v>
       </c>
       <c r="O50" t="n">
-        <v>29.9205011226317</v>
-      </c>
-      <c r="P50" t="n">
-        <v>52822.10480683522</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3405,30 +4053,39 @@
       <c r="I51" t="n">
         <v>3.175</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>trim at 0.16</t>
-        </is>
+      <c r="J51" t="n">
+        <v>0.0044239479366959</v>
+      </c>
+      <c r="K51" t="n">
+        <v>179.160245834743</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0031636884288931</v>
+        <v>0.0024524356428646</v>
       </c>
       <c r="M51" t="n">
-        <v>179.160245834743</v>
+        <v>99.3182964530266</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0011921761350618</v>
+        <v>40497.81968468332</v>
       </c>
       <c r="O51" t="n">
-        <v>99.3182964530266</v>
-      </c>
-      <c r="P51" t="n">
-        <v>40497.81968468332</v>
+        <v>8.673617379884035e-19</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3467,30 +4124,39 @@
       <c r="I52" t="n">
         <v>3.175</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J52" t="n">
+        <v>0.002485691494831</v>
+      </c>
+      <c r="K52" t="n">
+        <v>134.337541640328</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0018900313668732</v>
+        <v>0.0010823382084156</v>
       </c>
       <c r="M52" t="n">
-        <v>134.337541640328</v>
+        <v>58.4942477553271</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0004866780804578</v>
+        <v>54044.33410971532</v>
       </c>
       <c r="O52" t="n">
-        <v>58.4942477553271</v>
-      </c>
-      <c r="P52" t="n">
-        <v>54044.33410971532</v>
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3529,30 +4195,39 @@
       <c r="I53" t="n">
         <v>3.175</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J53" t="n">
+        <v>0.0012280663366135</v>
+      </c>
+      <c r="K53" t="n">
+        <v>71.2418157261492</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0009916351412732</v>
+        <v>0.0003861060149172</v>
       </c>
       <c r="M53" t="n">
-        <v>71.2418157261492</v>
+        <v>22.3985404903691</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0001496748195769</v>
+        <v>58011.37414335085</v>
       </c>
       <c r="O53" t="n">
-        <v>22.3985404903691</v>
-      </c>
-      <c r="P53" t="n">
-        <v>58011.37414335085</v>
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3591,30 +4266,43 @@
       <c r="I54" t="n">
         <v>3.175</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J54" t="n">
+        <v>0.0036849934965343</v>
+      </c>
+      <c r="K54" t="n">
+        <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0023622335493904</v>
+        <v>0.0035070591539823</v>
       </c>
       <c r="M54" t="n">
-        <v>162.188065728032</v>
+        <v>155.988580918375</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0021842992068384</v>
+        <v>34841.41802387166</v>
       </c>
       <c r="O54" t="n">
-        <v>155.988580918375</v>
-      </c>
-      <c r="P54" t="n">
-        <v>34841.41802387166</v>
+        <v>0.0009700428058603003</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[0.00634629]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[191.29395231]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3653,26 +4341,39 @@
       <c r="I55" t="n">
         <v>3.175</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.0027874345207056</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.399409973673</v>
+      </c>
       <c r="L55" t="n">
-        <v>0.0027229878863634</v>
+        <v>0.0009389922022407</v>
       </c>
       <c r="M55" t="n">
-        <v>152.399409973673</v>
+        <v>51.3381952215828</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0008745455678985</v>
+        <v>54673.71837495033</v>
       </c>
       <c r="O55" t="n">
-        <v>51.3381952215828</v>
-      </c>
-      <c r="P55" t="n">
-        <v>54673.71837495033</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3711,26 +4412,39 @@
       <c r="I56" t="n">
         <v>3.175</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.0025312346041463</v>
+      </c>
+      <c r="K56" t="n">
+        <v>126.804257125663</v>
+      </c>
       <c r="L56" t="n">
-        <v>0.0019954432394527</v>
+        <v>0.0009362218356742</v>
       </c>
       <c r="M56" t="n">
-        <v>126.804257125663</v>
+        <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0004004304709806</v>
+        <v>50095.81368631023</v>
       </c>
       <c r="O56" t="n">
-        <v>46.9007946489988</v>
-      </c>
-      <c r="P56" t="n">
-        <v>50095.81368631024</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3769,30 +4483,39 @@
       <c r="I57" t="n">
         <v>3.175</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J57" t="n">
+        <v>0.0025719219672697</v>
+      </c>
+      <c r="K57" t="n">
+        <v>149.984671993292</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0023971281613097</v>
+        <v>0.0010767328294175</v>
       </c>
       <c r="M57" t="n">
-        <v>149.984671993292</v>
+        <v>62.7909486756447</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0009019390234575</v>
+        <v>58316.18295655812</v>
       </c>
       <c r="O57" t="n">
-        <v>62.7909486756447</v>
-      </c>
-      <c r="P57" t="n">
-        <v>58316.18295655812</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3831,26 +4554,39 @@
       <c r="I58" t="n">
         <v>3.175</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.0034326027248403</v>
+      </c>
+      <c r="K58" t="n">
+        <v>151.968738810775</v>
+      </c>
       <c r="L58" t="n">
-        <v>0.0023055159386087</v>
+        <v>0.0014482529893324</v>
       </c>
       <c r="M58" t="n">
-        <v>151.968738810775</v>
+        <v>64.1172888068544</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0003211662031008</v>
+        <v>44272.16051279124</v>
       </c>
       <c r="O58" t="n">
-        <v>64.1172888068544</v>
-      </c>
-      <c r="P58" t="n">
-        <v>44272.16051279124</v>
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3889,26 +4625,43 @@
       <c r="I59" t="n">
         <v>3.175</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.0036792363133185</v>
+      </c>
+      <c r="K59" t="n">
+        <v>159.315233127494</v>
+      </c>
       <c r="L59" t="n">
-        <v>0.0025365000310913</v>
+        <v>0.0035668595422925</v>
       </c>
       <c r="M59" t="n">
-        <v>159.315233127494</v>
+        <v>155.435889158498</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0024241232600653</v>
+        <v>34520.87058186135</v>
       </c>
       <c r="O59" t="n">
-        <v>155.435889158498</v>
-      </c>
-      <c r="P59" t="n">
-        <v>34520.87058186135</v>
+        <v>0.0009358046877390854</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[0.00663262]</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>[200.59782047]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3947,26 +4700,39 @@
       <c r="I60" t="n">
         <v>3.175</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.0021834390066682</v>
+      </c>
+      <c r="K60" t="n">
+        <v>114.21692709225</v>
+      </c>
       <c r="L60" t="n">
-        <v>0.0019770578086991</v>
+        <v>0.001216178373921</v>
       </c>
       <c r="M60" t="n">
-        <v>114.21692709225</v>
+        <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0010097971759519</v>
+        <v>52310.56454676711</v>
       </c>
       <c r="O60" t="n">
-        <v>63.6189773293808</v>
-      </c>
-      <c r="P60" t="n">
-        <v>52310.56454676712</v>
+        <v>0</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4005,30 +4771,39 @@
       <c r="I61" t="n">
         <v>3.175</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J61" t="n">
+        <v>0.0009431448108916</v>
+      </c>
+      <c r="K61" t="n">
+        <v>51.966869050494</v>
       </c>
       <c r="L61" t="n">
-        <v>0.000581294238181</v>
+        <v>0.0005060832287942</v>
       </c>
       <c r="M61" t="n">
-        <v>51.966869050494</v>
+        <v>27.8849658882577</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0001442326560836</v>
+        <v>55099.56525272816</v>
       </c>
       <c r="O61" t="n">
-        <v>27.8849658882577</v>
-      </c>
-      <c r="P61" t="n">
-        <v>55099.56525272816</v>
+        <v>0</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4067,30 +4842,43 @@
       <c r="I62" t="n">
         <v>3.175</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>trim at 0.17</t>
-        </is>
+      <c r="J62" t="n">
+        <v>0.0036257686471862</v>
+      </c>
+      <c r="K62" t="n">
+        <v>157.454775694613</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0029688495230802</v>
+        <v>0.0023681673196195</v>
       </c>
       <c r="M62" t="n">
-        <v>157.454775694613</v>
+        <v>106.442938995528</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0017112481955135</v>
+        <v>40562.80442848011</v>
       </c>
       <c r="O62" t="n">
-        <v>106.442938995528</v>
-      </c>
-      <c r="P62" t="n">
-        <v>40562.80442848011</v>
+        <v>0.0002559840549039771</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>LPL @ 75</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[0.00632875]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>[187.98306967]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4129,26 +4917,39 @@
       <c r="I63" t="n">
         <v>3.175</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.0023476877515665</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.321861081836</v>
+      </c>
       <c r="L63" t="n">
-        <v>0.0023643508025239</v>
+        <v>0.0012064728039638</v>
       </c>
       <c r="M63" t="n">
-        <v>120.321861081836</v>
+        <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0012231358549212</v>
+        <v>51251.21984452444</v>
       </c>
       <c r="O63" t="n">
-        <v>61.8332029123926</v>
-      </c>
-      <c r="P63" t="n">
-        <v>51251.21984452443</v>
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4187,26 +4988,39 @@
       <c r="I64" t="n">
         <v>3.175</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.0023764446295779</v>
+      </c>
+      <c r="K64" t="n">
+        <v>117.932091658521</v>
+      </c>
       <c r="L64" t="n">
-        <v>0.0024274619103733</v>
+        <v>0.0007500416501684</v>
       </c>
       <c r="M64" t="n">
-        <v>117.932091658521</v>
+        <v>37.2211409996473</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0008010589309638</v>
+        <v>49625.43212271877</v>
       </c>
       <c r="O64" t="n">
-        <v>37.2211409996473</v>
-      </c>
-      <c r="P64" t="n">
-        <v>49625.43212271877</v>
+        <v>0</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4245,30 +5059,39 @@
       <c r="I65" t="n">
         <v>3.175</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J65" t="n">
+        <v>0.0028012388758927</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.002799564711745</v>
+        <v>0.0007091321681881</v>
       </c>
       <c r="M65" t="n">
-        <v>137.529404464271</v>
+        <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0007074580040404</v>
+        <v>49095.92168230859</v>
       </c>
       <c r="O65" t="n">
-        <v>34.8154973917735</v>
-      </c>
-      <c r="P65" t="n">
-        <v>49095.9216823086</v>
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4307,30 +5130,43 @@
       <c r="I66" t="n">
         <v>3.175</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J66" t="n">
+        <v>0.0026013638340965</v>
+      </c>
+      <c r="K66" t="n">
+        <v>125.650398590921</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0025058426924598</v>
+        <v>0.0025200902158205</v>
       </c>
       <c r="M66" t="n">
-        <v>125.650398590921</v>
+        <v>122.049942516087</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0024245690741838</v>
+        <v>44300.42800121289</v>
       </c>
       <c r="O66" t="n">
-        <v>122.049942516087</v>
-      </c>
-      <c r="P66" t="n">
-        <v>44300.42800121289</v>
+        <v>0.0002349608756213551</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[0.00581521]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>[184.28113182]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4369,26 +5205,39 @@
       <c r="I67" t="n">
         <v>3.175</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.0022861061575982</v>
+      </c>
+      <c r="K67" t="n">
+        <v>96.78575508036739</v>
+      </c>
       <c r="L67" t="n">
-        <v>0.0006459635547706</v>
+        <v>0.0010571751419547</v>
       </c>
       <c r="M67" t="n">
-        <v>96.78575508036739</v>
+        <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.0005829674608728999</v>
+        <v>42336.50950927416</v>
       </c>
       <c r="O67" t="n">
-        <v>44.7571054503344</v>
-      </c>
-      <c r="P67" t="n">
-        <v>42336.50950927417</v>
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4427,26 +5276,43 @@
       <c r="I68" t="n">
         <v>3.175</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.004027151846017</v>
+      </c>
+      <c r="K68" t="n">
+        <v>165.156659126179</v>
+      </c>
       <c r="L68" t="n">
-        <v>0.0031558202835545</v>
+        <v>0.003911832259637</v>
       </c>
       <c r="M68" t="n">
-        <v>165.156659126179</v>
+        <v>161.336232365224</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0030405006971745</v>
+        <v>33129.03627980388</v>
       </c>
       <c r="O68" t="n">
-        <v>161.336232365224</v>
-      </c>
-      <c r="P68" t="n">
-        <v>33129.03627980388</v>
+        <v>0.0009581021085889995</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[0.00699032]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[204.65696578]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4485,26 +5351,39 @@
       <c r="I69" t="n">
         <v>3.175</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.0043185796312401</v>
+      </c>
+      <c r="K69" t="n">
+        <v>188.358407583882</v>
+      </c>
       <c r="L69" t="n">
-        <v>0.0034908062617733</v>
+        <v>0.0010093411103384</v>
       </c>
       <c r="M69" t="n">
-        <v>188.358407583882</v>
+        <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0001815677408716</v>
+        <v>43615.82364287472</v>
       </c>
       <c r="O69" t="n">
-        <v>44.0232438640259</v>
-      </c>
-      <c r="P69" t="n">
-        <v>43615.8236428747</v>
+        <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4543,26 +5422,39 @@
       <c r="I70" t="n">
         <v>3.175</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.0045128572749774</v>
+      </c>
+      <c r="K70" t="n">
+        <v>178.246468462332</v>
+      </c>
       <c r="L70" t="n">
-        <v>0.0036492251984442</v>
+        <v>0.0020023632975881</v>
       </c>
       <c r="M70" t="n">
-        <v>178.246468462332</v>
+        <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0011387312210549</v>
+        <v>39497.4752360685</v>
       </c>
       <c r="O70" t="n">
-        <v>79.088294760099</v>
-      </c>
-      <c r="P70" t="n">
-        <v>39497.47523606849</v>
+        <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4601,30 +5493,39 @@
       <c r="I71" t="n">
         <v>3.175</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J71" t="n">
+        <v>0.0023941234250837</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0020042311549392</v>
+        <v>0.0007743519844787</v>
       </c>
       <c r="M71" t="n">
-        <v>89.5786348354455</v>
+        <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0003844597143342</v>
+        <v>37416.04709970555</v>
       </c>
       <c r="O71" t="n">
-        <v>28.9731903230109</v>
-      </c>
-      <c r="P71" t="n">
-        <v>37416.04709970556</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4663,30 +5564,39 @@
       <c r="I72" t="n">
         <v>3.175</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J72" t="n">
+        <v>0.0022474365245629</v>
+      </c>
+      <c r="K72" t="n">
+        <v>94.7858175387026</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001638116266368</v>
+        <v>0.0011229982093415</v>
       </c>
       <c r="M72" t="n">
-        <v>94.7858175387026</v>
+        <v>47.3625404782615</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0005136779511466</v>
+        <v>42175.08103243844</v>
       </c>
       <c r="O72" t="n">
-        <v>47.3625404782615</v>
-      </c>
-      <c r="P72" t="n">
-        <v>42175.08103243844</v>
+        <v>0</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -4725,30 +5635,39 @@
       <c r="I73" t="n">
         <v>3.175</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>trim at 0.09</t>
-        </is>
+      <c r="J73" t="n">
+        <v>0.0033799815900377</v>
+      </c>
+      <c r="K73" t="n">
+        <v>117.984652395155</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0025588255988143</v>
+        <v>0.0017421257976894</v>
       </c>
       <c r="M73" t="n">
-        <v>117.984652395155</v>
+        <v>60.8121971062964</v>
       </c>
       <c r="N73" t="n">
-        <v>0.000920969806466</v>
+        <v>34906.89202062578</v>
       </c>
       <c r="O73" t="n">
-        <v>60.8121971062964</v>
-      </c>
-      <c r="P73" t="n">
-        <v>34906.89202062578</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4787,30 +5706,39 @@
       <c r="I74" t="n">
         <v>3.175</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>trim at 0.11</t>
-        </is>
+      <c r="J74" t="n">
+        <v>0.0023539988856123</v>
+      </c>
+      <c r="K74" t="n">
+        <v>89.70936921435261</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0015751398899118</v>
+        <v>0.0013051013093998</v>
       </c>
       <c r="M74" t="n">
-        <v>89.70936921435261</v>
+        <v>49.7365635738737</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0005262423136993001</v>
+        <v>38109.35075740957</v>
       </c>
       <c r="O74" t="n">
-        <v>49.7365635738737</v>
-      </c>
-      <c r="P74" t="n">
-        <v>38109.35075740957</v>
+        <v>0</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4849,30 +5777,39 @@
       <c r="I75" t="n">
         <v>3.175</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J75" t="n">
+        <v>0.0008661956129444</v>
+      </c>
+      <c r="K75" t="n">
+        <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0003288655510823</v>
+        <v>0.0004282357690354</v>
       </c>
       <c r="M75" t="n">
-        <v>46.6700725180651</v>
+        <v>23.0730727529062</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.0001090942928267</v>
+        <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>23.0730727529062</v>
-      </c>
-      <c r="P75" t="n">
-        <v>53879.36837894645</v>
+        <v>1.084202172485504e-19</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4911,30 +5848,39 @@
       <c r="I76" t="n">
         <v>3.175</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J76" t="n">
+        <v>0.0021263632595292</v>
+      </c>
+      <c r="K76" t="n">
+        <v>79.6278853066987</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0010519873621433</v>
+        <v>0.0014825443881014</v>
       </c>
       <c r="M76" t="n">
-        <v>79.6278853066987</v>
+        <v>55.5182064817886</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0004081684907155</v>
+        <v>37447.92191543245</v>
       </c>
       <c r="O76" t="n">
-        <v>55.5182064817886</v>
-      </c>
-      <c r="P76" t="n">
-        <v>37447.92191543245</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4973,30 +5919,39 @@
       <c r="I77" t="n">
         <v>3.175</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
-        </is>
+      <c r="J77" t="n">
+        <v>0.0017981779912797</v>
+      </c>
+      <c r="K77" t="n">
+        <v>70.2101465114052</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0011414970920866</v>
+        <v>0.0009939696897872999</v>
       </c>
       <c r="M77" t="n">
-        <v>70.2101465114052</v>
+        <v>38.8097050938778</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0003372887905942</v>
+        <v>39045.15951807063</v>
       </c>
       <c r="O77" t="n">
-        <v>38.8097050938778</v>
-      </c>
-      <c r="P77" t="n">
-        <v>39045.15951807063</v>
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5035,26 +5990,39 @@
       <c r="I78" t="n">
         <v>3.175</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.0029084489670367</v>
+      </c>
+      <c r="K78" t="n">
+        <v>110.081902277342</v>
+      </c>
       <c r="L78" t="n">
-        <v>0.0018873649587801</v>
+        <v>0.0004249535703062</v>
       </c>
       <c r="M78" t="n">
-        <v>110.081902277342</v>
+        <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.0005961304379504</v>
+        <v>37849.00595642767</v>
       </c>
       <c r="O78" t="n">
-        <v>16.0840702137286</v>
-      </c>
-      <c r="P78" t="n">
-        <v>37849.00595642768</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -5093,30 +6061,39 @@
       <c r="I79" t="n">
         <v>3.175</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>trim at 0.05</t>
-        </is>
+      <c r="J79" t="n">
+        <v>0.0013903358524717</v>
+      </c>
+      <c r="K79" t="n">
+        <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0012426941191744</v>
+        <v>0.0008311687471325</v>
       </c>
       <c r="M79" t="n">
-        <v>60.0918208946391</v>
+        <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0006835270138352</v>
+        <v>43221.08272458698</v>
       </c>
       <c r="O79" t="n">
-        <v>35.9240131779057</v>
-      </c>
-      <c r="P79" t="n">
-        <v>43221.08272458697</v>
+        <v>0</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -5155,30 +6132,39 @@
       <c r="I80" t="n">
         <v>3.175</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J80" t="n">
+        <v>0.0033569958184947</v>
+      </c>
+      <c r="K80" t="n">
+        <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0027373926171371</v>
+        <v>0.0003564904747817</v>
       </c>
       <c r="M80" t="n">
-        <v>119.090300315133</v>
+        <v>12.64659236909</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.0002631127265759</v>
+        <v>35475.26024876975</v>
       </c>
       <c r="O80" t="n">
-        <v>12.64659236909</v>
-      </c>
-      <c r="P80" t="n">
-        <v>35475.26024876975</v>
+        <v>0</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5217,26 +6203,39 @@
       <c r="I81" t="n">
         <v>3.175</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.0026449595049978</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.716025680978</v>
+      </c>
       <c r="L81" t="n">
-        <v>0.0024324019778128</v>
+        <v>0.0006753540432521</v>
       </c>
       <c r="M81" t="n">
-        <v>115.716025680978</v>
+        <v>29.5464961429663</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0004627965160671</v>
+        <v>43749.63981955958</v>
       </c>
       <c r="O81" t="n">
-        <v>29.5464961429663</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43749.63981955958</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5275,26 +6274,39 @@
       <c r="I82" t="n">
         <v>3.175</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.00091600718045</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.099975477242</v>
+      </c>
       <c r="L82" t="n">
-        <v>0.0005822215377281</v>
+        <v>0.0003289580731545</v>
       </c>
       <c r="M82" t="n">
-        <v>43.099975477242</v>
+        <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>-4.82756956746927e-06</v>
+        <v>47052.00613828091</v>
       </c>
       <c r="O82" t="n">
-        <v>15.4781372773018</v>
-      </c>
-      <c r="P82" t="n">
-        <v>47052.00613827537</v>
+        <v>0</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5333,30 +6345,39 @@
       <c r="I83" t="n">
         <v>3.175</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J83" t="n">
+        <v>0.0016119402974691</v>
+      </c>
+      <c r="K83" t="n">
+        <v>51.7861136852212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0014327517010738</v>
+        <v>0.0008208543378776</v>
       </c>
       <c r="M83" t="n">
-        <v>51.7861136852212</v>
+        <v>26.3712347951603</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0006416657414823</v>
+        <v>32126.57054763632</v>
       </c>
       <c r="O83" t="n">
-        <v>26.3712347951603</v>
-      </c>
-      <c r="P83" t="n">
-        <v>32126.57054763632</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -5395,30 +6416,43 @@
       <c r="I84" t="n">
         <v>3.175</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J84" t="n">
+        <v>0.0013448746821755</v>
+      </c>
+      <c r="K84" t="n">
+        <v>56.7732969744529</v>
       </c>
       <c r="L84" t="n">
-        <v>0.00080048817503</v>
+        <v>0.000912636510294</v>
       </c>
       <c r="M84" t="n">
-        <v>56.7732969744529</v>
+        <v>42.6310257037105</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0003682500031485</v>
+        <v>32718.70045438644</v>
       </c>
       <c r="O84" t="n">
-        <v>42.6310257037105</v>
-      </c>
-      <c r="P84" t="n">
-        <v>32718.70045438644</v>
+        <v>0.0003903194479702745</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>[0.00364606]</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>[69.48773288]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5457,30 +6491,39 @@
       <c r="I85" t="n">
         <v>3.175</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
-        </is>
+      <c r="J85" t="n">
+        <v>0.0011337066093703</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0012773467743735</v>
+        <v>2.996225910133368e-05</v>
       </c>
       <c r="M85" t="n">
-        <v>56.9308587258361</v>
+        <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0001736024241044</v>
+        <v>50216.57124982067</v>
       </c>
       <c r="O85" t="n">
-        <v>1.50460191896753</v>
-      </c>
-      <c r="P85" t="n">
-        <v>50216.57124981459</v>
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -5519,30 +6562,39 @@
       <c r="I86" t="n">
         <v>3.175</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>trim at 0.125</t>
-        </is>
+      <c r="J86" t="n">
+        <v>0.0010674998114143</v>
+      </c>
+      <c r="K86" t="n">
+        <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0009714729283885</v>
+        <v>0.0006235740665684</v>
       </c>
       <c r="M86" t="n">
-        <v>57.0351509504363</v>
+        <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0005275471835426</v>
+        <v>53428.72227290323</v>
       </c>
       <c r="O86" t="n">
-        <v>33.316765619273</v>
-      </c>
-      <c r="P86" t="n">
-        <v>53428.72227290324</v>
+        <v>0</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -5581,30 +6633,39 @@
       <c r="I87" t="n">
         <v>3.175</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J87" t="n">
+        <v>0.0011970851379009</v>
+      </c>
+      <c r="K87" t="n">
+        <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0021140556723788</v>
+        <v>8.908567772309599e-05</v>
       </c>
       <c r="M87" t="n">
-        <v>51.8909929303517</v>
+        <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0010060562122009</v>
+        <v>43347.78812920808</v>
       </c>
       <c r="O87" t="n">
-        <v>3.86166708328733</v>
-      </c>
-      <c r="P87" t="n">
-        <v>43347.78812920433</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -5643,30 +6704,39 @@
       <c r="I88" t="n">
         <v>3.175</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
-        </is>
+      <c r="J88" t="n">
+        <v>0.0007068327420114</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43.4660299348499</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0005480058125115</v>
+        <v>0.0004030275041435</v>
       </c>
       <c r="M88" t="n">
-        <v>43.4660299348499</v>
+        <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0002442005746436</v>
+        <v>61494.08106245904</v>
       </c>
       <c r="O88" t="n">
-        <v>24.7838060102016</v>
-      </c>
-      <c r="P88" t="n">
-        <v>61494.08106245905</v>
+        <v>0</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -5705,30 +6775,39 @@
       <c r="I89" t="n">
         <v>3.175</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J89" t="n">
+        <v>0.0015287658678391</v>
+      </c>
+      <c r="K89" t="n">
+        <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0011334439581187</v>
+        <v>0.0002320617808629</v>
       </c>
       <c r="M89" t="n">
-        <v>61.7681774556576</v>
+        <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.0001632601288575</v>
+        <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>9.37621225235857</v>
-      </c>
-      <c r="P89" t="n">
-        <v>40403.9485411606</v>
+        <v>0</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -5767,30 +6846,39 @@
       <c r="I90" t="n">
         <v>3.175</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J90" t="n">
+        <v>0.0013427967501314</v>
+      </c>
+      <c r="K90" t="n">
+        <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0008839086860013</v>
+        <v>0.0009467802092584</v>
       </c>
       <c r="M90" t="n">
-        <v>56.27423602054</v>
+        <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0004878921451283</v>
+        <v>41908.23072444176</v>
       </c>
       <c r="O90" t="n">
-        <v>39.677883454939</v>
-      </c>
-      <c r="P90" t="n">
-        <v>41908.23072444175</v>
+        <v>0</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -5829,26 +6917,39 @@
       <c r="I91" t="n">
         <v>3.175</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.0007534672376625</v>
+      </c>
+      <c r="K91" t="n">
+        <v>40.9703547439299</v>
+      </c>
       <c r="L91" t="n">
-        <v>0.0007724399716412</v>
+        <v>0.0006351934706628</v>
       </c>
       <c r="M91" t="n">
-        <v>40.9703547439299</v>
+        <v>34.5391286087219</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0006541662046415</v>
+        <v>54375.76140805859</v>
       </c>
       <c r="O91" t="n">
-        <v>34.5391286087219</v>
-      </c>
-      <c r="P91" t="n">
-        <v>54375.76140805859</v>
+        <v>0</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -5887,30 +6988,39 @@
       <c r="I92" t="n">
         <v>3.175</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J92" t="n">
+        <v>0.0012369408397664</v>
+      </c>
+      <c r="K92" t="n">
+        <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0014238267674319</v>
+        <v>0.0001282871298544</v>
       </c>
       <c r="M92" t="n">
-        <v>54.103419580053</v>
+        <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0003151730575199</v>
+        <v>43739.69865063917</v>
       </c>
       <c r="O92" t="n">
-        <v>5.61124040058898</v>
-      </c>
-      <c r="P92" t="n">
-        <v>43739.69865063918</v>
+        <v>-2.168404344971009e-19</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -5949,26 +7059,43 @@
       <c r="I93" t="n">
         <v>3.175</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.0016512606760335</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.9553327522687</v>
+      </c>
       <c r="L93" t="n">
-        <v>0.0010451434275552</v>
+        <v>0.0009957590425368999</v>
       </c>
       <c r="M93" t="n">
-        <v>66.9553327522687</v>
+        <v>47.9347433993002</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0003896417940586</v>
+        <v>29016.84508627111</v>
       </c>
       <c r="O93" t="n">
-        <v>47.9347433993002</v>
-      </c>
-      <c r="P93" t="n">
-        <v>29016.84508627111</v>
+        <v>0.0006562035763067763</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>[0.00404133]</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>[82.77179247]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -6007,26 +7134,39 @@
       <c r="I94" t="n">
         <v>3.175</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.0009501033114773</v>
+      </c>
+      <c r="K94" t="n">
+        <v>43.0868710364167</v>
+      </c>
       <c r="L94" t="n">
-        <v>0.0012755541851029</v>
+        <v>3.835712248292705e-05</v>
       </c>
       <c r="M94" t="n">
-        <v>43.0868710364167</v>
+        <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0003638079961085</v>
+        <v>45349.66936324187</v>
       </c>
       <c r="O94" t="n">
-        <v>1.73948282232606</v>
-      </c>
-      <c r="P94" t="n">
-        <v>45349.66936324052</v>
+        <v>0</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -6065,30 +7205,39 @@
       <c r="I95" t="n">
         <v>3.175</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J95" t="n">
+        <v>0.0013102739596552</v>
+      </c>
+      <c r="K95" t="n">
+        <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0016088378893386</v>
+        <v>2.030809767081076e-05</v>
       </c>
       <c r="M95" t="n">
-        <v>59.7216564670194</v>
+        <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0003188720273542</v>
+        <v>45579.51871586858</v>
       </c>
       <c r="O95" t="n">
-        <v>0.9256333178703851</v>
-      </c>
-      <c r="P95" t="n">
-        <v>45579.5187158682</v>
+        <v>-4.336808689942018e-19</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -6127,30 +7276,39 @@
       <c r="I96" t="n">
         <v>3.175</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J96" t="n">
+        <v>0.000754147374033</v>
+      </c>
+      <c r="K96" t="n">
+        <v>54.0681392270688</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.0001349380301042</v>
+        <v>0.0004594203600666</v>
       </c>
       <c r="M96" t="n">
-        <v>54.0681392270688</v>
+        <v>32.9378644640673</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.0004296650440706</v>
+        <v>71694.39434354132</v>
       </c>
       <c r="O96" t="n">
-        <v>32.9378644640673</v>
-      </c>
-      <c r="P96" t="n">
-        <v>71694.39434354132</v>
+        <v>0</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -6189,30 +7347,39 @@
       <c r="I97" t="n">
         <v>3.175</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J97" t="n">
+        <v>0.0009483485549953001</v>
+      </c>
+      <c r="K97" t="n">
+        <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.001170348675175</v>
+        <v>0.000656170014276</v>
       </c>
       <c r="M97" t="n">
-        <v>41.4568277525965</v>
+        <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0008781701344557</v>
+        <v>43714.75818065651</v>
       </c>
       <c r="O97" t="n">
-        <v>28.6843134994752</v>
-      </c>
-      <c r="P97" t="n">
-        <v>43714.75818065652</v>
+        <v>0</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6251,26 +7418,39 @@
       <c r="I98" t="n">
         <v>3.175</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.0011521429933447</v>
+      </c>
+      <c r="K98" t="n">
+        <v>55.1712364974773</v>
+      </c>
       <c r="L98" t="n">
-        <v>-0.0016186958523188</v>
+        <v>0.0006578419678799</v>
       </c>
       <c r="M98" t="n">
-        <v>55.1712364974773</v>
+        <v>31.5012589561555</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.0021129968777836</v>
+        <v>47885.75447332828</v>
       </c>
       <c r="O98" t="n">
-        <v>31.5012589561555</v>
-      </c>
-      <c r="P98" t="n">
-        <v>47885.75447332828</v>
+        <v>2.168404344971009e-19</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -6309,30 +7489,43 @@
       <c r="I99" t="n">
         <v>3.175</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J99" t="n">
+        <v>0.0026854161601554</v>
+      </c>
+      <c r="K99" t="n">
+        <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0016879714153149</v>
+        <v>0.0016606545809768</v>
       </c>
       <c r="M99" t="n">
-        <v>71.69828730701499</v>
+        <v>46.8159610839017</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0006632098361363</v>
+        <v>24281.08813667446</v>
       </c>
       <c r="O99" t="n">
-        <v>46.8159610839017</v>
-      </c>
-      <c r="P99" t="n">
-        <v>24281.08813667447</v>
+        <v>0.0002674287413347199</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[0.00526576]</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>[87.19286708]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -6371,26 +7564,43 @@
       <c r="I100" t="n">
         <v>3.175</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.0026427951091358</v>
+      </c>
+      <c r="K100" t="n">
+        <v>77.33133438958311</v>
+      </c>
       <c r="L100" t="n">
-        <v>0.0017196871597708</v>
+        <v>0.0025399477814796</v>
       </c>
       <c r="M100" t="n">
-        <v>77.33133438958311</v>
+        <v>75.3521519812235</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0016168398321146</v>
+        <v>19243.88755122208</v>
       </c>
       <c r="O100" t="n">
-        <v>75.3521519812235</v>
-      </c>
-      <c r="P100" t="n">
-        <v>19243.88755122208</v>
+        <v>0.001375693056716632</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[0.00502987]</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>[88.65760866]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -6429,30 +7639,39 @@
       <c r="I101" t="n">
         <v>3.175</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>trim at 0.12</t>
-        </is>
+      <c r="J101" t="n">
+        <v>0.0021033944361346</v>
+      </c>
+      <c r="K101" t="n">
+        <v>69.8810427182453</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0014895556037713</v>
+        <v>0.0012174031337882</v>
       </c>
       <c r="M101" t="n">
-        <v>69.8810427182453</v>
+        <v>40.4457665838092</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0006035643014249</v>
+        <v>33222.98543617944</v>
       </c>
       <c r="O101" t="n">
-        <v>40.4457665838092</v>
-      </c>
-      <c r="P101" t="n">
-        <v>33222.98543617944</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/example/info/02 trimmed small info.xlsx
+++ b/example/info/02 trimmed small info.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_0</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -567,39 +567,39 @@
         <v>3.175</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0024866443451765</v>
+        <v>0.0024866443451764</v>
       </c>
       <c r="K2" t="n">
         <v>158.406047302999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001167465321559</v>
+        <v>0.0011674653215589</v>
       </c>
       <c r="M2" t="n">
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050128</v>
+        <v>63702.73562050127</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,20 +657,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -709,13 +709,13 @@
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0017713102914095</v>
+        <v>0.0017713102914093</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00055824291837</v>
+        <v>0.0005582429183698</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
@@ -724,24 +724,24 @@
         <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -799,20 +799,20 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -870,20 +870,20 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,20 +941,20 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,20 +1012,20 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1079,26 +1079,26 @@
         <v>57873.11208980431</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00010109965432908</v>
+        <v>0.0001010996543290804</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00643791]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>[267.04645153]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
         </is>
       </c>
     </row>
@@ -1158,20 +1158,20 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>[0.00687551]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[264.47172192]</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[nan]</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>[nan]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,20 +1229,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663752]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>[258.06834779]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
         </is>
       </c>
     </row>
@@ -1375,20 +1375,20 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1427,13 +1427,13 @@
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0033375993605944</v>
+        <v>0.0033375993605945</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0010929616782864</v>
+        <v>0.0010929616782865</v>
       </c>
       <c r="M14" t="n">
         <v>62.8521211497185</v>
@@ -1442,24 +1442,24 @@
         <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1517,20 +1517,20 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,20 +1588,20 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1659,20 +1659,20 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1801,20 +1801,20 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1872,20 +1872,20 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1924,39 +1924,39 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938447</v>
+        <v>0.0030995919384469</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.85013895770068e-05</v>
+        <v>9.850138957700592e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680225</v>
+        <v>59673.13012680422</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2014,20 +2014,20 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2066,39 +2066,39 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0029868656894759</v>
+        <v>0.002986865689476</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0012959178912094</v>
+        <v>0.0012959178912095</v>
       </c>
       <c r="M23" t="n">
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784517</v>
+        <v>59252.56043784516</v>
       </c>
       <c r="O23" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2137,39 +2137,39 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0029139287608913</v>
+        <v>0.0029139287608912</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495</v>
+        <v>0.0002542523812494</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553229024</v>
+        <v>56462.62553229026</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2208,39 +2208,39 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0027992918310765</v>
+        <v>0.0027992918310763</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
       </c>
       <c r="L25" t="n">
-        <v>9.348677992880445e-06</v>
+        <v>9.34867799287871e-06</v>
       </c>
       <c r="M25" t="n">
         <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286482</v>
+        <v>59353.72383286903</v>
       </c>
       <c r="O25" t="n">
         <v>4.336808689942018e-19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2279,39 +2279,39 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0023420941477582</v>
+        <v>0.002342094147758</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213629e-05</v>
+        <v>6.561829182213455e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582195</v>
+        <v>61169.49209582728</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2350,39 +2350,39 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583312</v>
+        <v>0.0018778975833119</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191429e-05</v>
+        <v>4.202040312191342e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.72454414391</v>
+        <v>61209.72454414721</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2507,24 +2507,24 @@
         <v>61169.23784576494</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2582,20 +2582,20 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2653,20 +2653,20 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2705,39 +2705,39 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005420269248842</v>
+        <v>0.0005420269248841</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559954508e-05</v>
+        <v>4.254760559953716e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449707461</v>
+        <v>85101.4444970903</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2795,20 +2795,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2866,20 +2866,20 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2937,20 +2937,20 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2989,39 +2989,39 @@
         <v>3.175</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0025945324649932</v>
+        <v>0.0025945324649931</v>
       </c>
       <c r="K36" t="n">
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923</v>
+        <v>0.0007298762958922</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441386</v>
+        <v>55511.09310441385</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3079,20 +3079,20 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3150,20 +3150,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3202,39 +3202,39 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0035359444264281</v>
+        <v>0.0035359444264282</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0016041809945174</v>
+        <v>0.0016041809945175</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269123</v>
+        <v>49860.53582269122</v>
       </c>
       <c r="O39" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3292,20 +3292,20 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3359,24 +3359,24 @@
         <v>52099.200379646</v>
       </c>
       <c r="O41" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3434,20 +3434,20 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3505,20 +3505,20 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3576,20 +3576,20 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3647,20 +3647,20 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3699,39 +3699,39 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0016426679313127</v>
+        <v>0.0016426679313128</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864567</v>
+        <v>0.0008846657864568</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484175</v>
+        <v>52943.65838484174</v>
       </c>
       <c r="O46" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3770,39 +3770,39 @@
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0020296884563959</v>
+        <v>0.0020296884563958</v>
       </c>
       <c r="K47" t="n">
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243</v>
+        <v>0.0002692857965242</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640275</v>
+        <v>48437.73151640274</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3860,20 +3860,20 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3931,20 +3931,20 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4002,20 +4002,20 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4073,20 +4073,20 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4144,20 +4144,20 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4215,20 +4215,20 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4267,13 +4267,13 @@
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0036849934965343</v>
+        <v>0.0036849934965341</v>
       </c>
       <c r="K54" t="n">
         <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0035070591539823</v>
+        <v>0.0035070591539821</v>
       </c>
       <c r="M54" t="n">
         <v>155.988580918375</v>
@@ -4282,26 +4282,26 @@
         <v>34841.41802387166</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0009700428058603003</v>
+        <v>0.000970042805860502</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00634629]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>[191.29395231]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
         </is>
       </c>
     </row>
@@ -4361,20 +4361,20 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4413,39 +4413,39 @@
         <v>3.175</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0025312346041463</v>
+        <v>0.0025312346041464</v>
       </c>
       <c r="K56" t="n">
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356742</v>
+        <v>0.0009362218356743</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631023</v>
+        <v>50095.81368631024</v>
       </c>
       <c r="O56" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr"/>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4503,20 +4503,20 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4574,20 +4574,20 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4645,22 +4645,22 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663262]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>[200.59782047]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
         </is>
       </c>
     </row>
@@ -4701,39 +4701,39 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0021834390066682</v>
+        <v>0.0021834390066681</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921</v>
+        <v>0.0012161783739209</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676711</v>
+        <v>52310.56454676712</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4791,20 +4791,20 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00632875]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>[187.98306967]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
           <t>LPL @ 75</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
         </is>
       </c>
     </row>
@@ -4918,39 +4918,39 @@
         <v>3.175</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0023476877515665</v>
+        <v>0.0023476877515664</v>
       </c>
       <c r="K63" t="n">
         <v>120.321861081836</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0012064728039638</v>
+        <v>0.0012064728039637</v>
       </c>
       <c r="M63" t="n">
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452444</v>
+        <v>51251.21984452443</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5008,20 +5008,20 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5079,20 +5079,20 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr"/>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00581521]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>[184.28113182]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
         </is>
       </c>
     </row>
@@ -5225,20 +5225,20 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5292,26 +5292,26 @@
         <v>33129.03627980388</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0009581021085889995</v>
+        <v>0.0009581021085890004</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00699032]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>[204.65696578]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
         </is>
       </c>
     </row>
@@ -5352,39 +5352,39 @@
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0043185796312401</v>
+        <v>0.00431857963124</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0010093411103384</v>
+        <v>0.0010093411103383</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.82364287472</v>
+        <v>43615.82364287471</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>8.673617379884035e-19</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5442,20 +5442,20 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5494,39 +5494,39 @@
         <v>3.175</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0023941234250837</v>
+        <v>0.0023941234250838</v>
       </c>
       <c r="K71" t="n">
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007743519844787</v>
+        <v>0.0007743519844788</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970555</v>
+        <v>37416.04709970556</v>
       </c>
       <c r="O71" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5584,20 +5584,20 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5655,20 +5655,20 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5726,20 +5726,20 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr"/>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5778,13 +5778,13 @@
         <v>3.175</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0008661956129444</v>
+        <v>0.0008661956129445</v>
       </c>
       <c r="K75" t="n">
         <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0004282357690354</v>
+        <v>0.0004282357690355</v>
       </c>
       <c r="M75" t="n">
         <v>23.0730727529062</v>
@@ -5793,24 +5793,24 @@
         <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>1.084202172485504e-19</v>
+        <v>0</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5868,20 +5868,20 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6010,20 +6010,20 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6062,39 +6062,39 @@
         <v>3.175</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0013903358524717</v>
+        <v>0.0013903358524716</v>
       </c>
       <c r="K79" t="n">
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325</v>
+        <v>0.0008311687471324</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458698</v>
+        <v>43221.08272458697</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr"/>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6152,20 +6152,20 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6223,20 +6223,20 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6275,13 +6275,13 @@
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.00091600718045</v>
+        <v>0.0009160071804499</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003289580731545</v>
+        <v>0.0003289580731544</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
@@ -6294,20 +6294,20 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6365,20 +6365,20 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6436,22 +6436,22 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00364606]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>[69.48773288]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
         </is>
       </c>
     </row>
@@ -6492,39 +6492,39 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0011337066093703</v>
+        <v>0.0011337066093702</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910133368e-05</v>
+        <v>2.996225910133043e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124982067</v>
+        <v>50216.57124982507</v>
       </c>
       <c r="O85" t="n">
-        <v>2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6578,24 +6578,24 @@
         <v>53428.72227290323</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>-2.168404344971009e-19</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6634,39 +6634,39 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0011970851379009</v>
+        <v>0.0011970851379008</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772309599e-05</v>
+        <v>8.908567772308797e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920808</v>
+        <v>43347.78812921167</v>
       </c>
       <c r="O87" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>0</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6724,20 +6724,20 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6776,13 +6776,13 @@
         <v>3.175</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0015287658678391</v>
+        <v>0.001528765867839</v>
       </c>
       <c r="K89" t="n">
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002320617808629</v>
+        <v>0.0002320617808628</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
@@ -6791,24 +6791,24 @@
         <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6847,39 +6847,39 @@
         <v>3.175</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0013427967501314</v>
+        <v>0.0013427967501313</v>
       </c>
       <c r="K90" t="n">
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584</v>
+        <v>0.0009467802092583</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444176</v>
+        <v>41908.23072444175</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>2.168404344971009e-19</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6937,20 +6937,20 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7004,24 +7004,24 @@
         <v>43739.69865063917</v>
       </c>
       <c r="O92" t="n">
-        <v>-2.168404344971009e-19</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7079,22 +7079,22 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00404133]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>[82.77179247]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
         </is>
       </c>
     </row>
@@ -7135,39 +7135,39 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0009501033114773</v>
+        <v>0.0009501033114772</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292705e-05</v>
+        <v>3.835712248292586e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324187</v>
+        <v>45349.66936324678</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7206,39 +7206,39 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0013102739596552</v>
+        <v>0.001310273959655</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.030809767081076e-05</v>
+        <v>2.030809767080989e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.51871586858</v>
+        <v>45579.51871587562</v>
       </c>
       <c r="O95" t="n">
-        <v>-4.336808689942018e-19</v>
+        <v>4.336808689942018e-19</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7296,20 +7296,20 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7367,20 +7367,20 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7505,26 +7505,26 @@
         <v>24281.08813667446</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0002674287413347199</v>
+        <v>0.0002674287413347185</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00526576]</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>[87.19286708]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
         </is>
       </c>
     </row>
@@ -7584,22 +7584,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00502987]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>[88.65760866]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
         </is>
       </c>
     </row>
@@ -7659,20 +7659,20 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
